--- a/Code/Results/Cases/Case_3_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011125324014822</v>
+        <v>1.035885148950424</v>
       </c>
       <c r="D2">
-        <v>1.02635819702492</v>
+        <v>1.038311417493139</v>
       </c>
       <c r="E2">
-        <v>1.021798033976769</v>
+        <v>1.044491955831546</v>
       </c>
       <c r="F2">
-        <v>1.023248286699495</v>
+        <v>1.054574073263947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049313216624602</v>
+        <v>1.038838669487082</v>
       </c>
       <c r="J2">
-        <v>1.032978295145881</v>
+        <v>1.040996482544607</v>
       </c>
       <c r="K2">
-        <v>1.037462138715304</v>
+        <v>1.041099811562334</v>
       </c>
       <c r="L2">
-        <v>1.032961815983674</v>
+        <v>1.04726285444757</v>
       </c>
       <c r="M2">
-        <v>1.034392965390954</v>
+        <v>1.057316909141941</v>
       </c>
       <c r="N2">
-        <v>1.034445242809261</v>
+        <v>1.042474816953786</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015324961182509</v>
+        <v>1.036763236396237</v>
       </c>
       <c r="D3">
-        <v>1.029381588658152</v>
+        <v>1.03895692447348</v>
       </c>
       <c r="E3">
-        <v>1.025597869515983</v>
+        <v>1.045345701130501</v>
       </c>
       <c r="F3">
-        <v>1.0280393173804</v>
+        <v>1.055677028276694</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050674969692092</v>
+        <v>1.03905861747575</v>
       </c>
       <c r="J3">
-        <v>1.035406395058529</v>
+        <v>1.041518664465915</v>
       </c>
       <c r="K3">
-        <v>1.039651837707474</v>
+        <v>1.041555740632425</v>
       </c>
       <c r="L3">
-        <v>1.035913371059386</v>
+        <v>1.047927737725493</v>
       </c>
       <c r="M3">
-        <v>1.038325572438779</v>
+        <v>1.058232394153206</v>
       </c>
       <c r="N3">
-        <v>1.036876790902285</v>
+        <v>1.042997740433317</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017987825127098</v>
+        <v>1.037331717464131</v>
       </c>
       <c r="D4">
-        <v>1.031300570823748</v>
+        <v>1.039374755357087</v>
       </c>
       <c r="E4">
-        <v>1.028012676593887</v>
+        <v>1.045898845965253</v>
       </c>
       <c r="F4">
-        <v>1.03108505563539</v>
+        <v>1.056391953457573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051527612018315</v>
+        <v>1.039199683201823</v>
       </c>
       <c r="J4">
-        <v>1.036942330281709</v>
+        <v>1.041856204620144</v>
       </c>
       <c r="K4">
-        <v>1.041035350794025</v>
+        <v>1.041850215496057</v>
       </c>
       <c r="L4">
-        <v>1.037784371998693</v>
+        <v>1.048358032575444</v>
       </c>
       <c r="M4">
-        <v>1.040822246465963</v>
+        <v>1.058825419729738</v>
       </c>
       <c r="N4">
-        <v>1.038414907329657</v>
+        <v>1.043335759933282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019094659680077</v>
+        <v>1.037570777521864</v>
       </c>
       <c r="D5">
-        <v>1.03209862648459</v>
+        <v>1.039550444676601</v>
       </c>
       <c r="E5">
-        <v>1.029017690969616</v>
+        <v>1.046131557837729</v>
       </c>
       <c r="F5">
-        <v>1.032352939110434</v>
+        <v>1.056692803672369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051879387633561</v>
+        <v>1.039258686073731</v>
       </c>
       <c r="J5">
-        <v>1.03757984693946</v>
+        <v>1.041998022594004</v>
       </c>
       <c r="K5">
-        <v>1.041609202579562</v>
+        <v>1.041973882050207</v>
       </c>
       <c r="L5">
-        <v>1.038561924903944</v>
+        <v>1.048538944489139</v>
       </c>
       <c r="M5">
-        <v>1.041860747968693</v>
+        <v>1.059074881185133</v>
       </c>
       <c r="N5">
-        <v>1.039053329334186</v>
+        <v>1.043477779304931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019279773463448</v>
+        <v>1.037610920865109</v>
       </c>
       <c r="D6">
-        <v>1.032232121569785</v>
+        <v>1.039579945592711</v>
       </c>
       <c r="E6">
-        <v>1.029185850747077</v>
+        <v>1.046170641104191</v>
       </c>
       <c r="F6">
-        <v>1.032565100040527</v>
+        <v>1.056743335054156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051938065049591</v>
+        <v>1.039268575237103</v>
       </c>
       <c r="J6">
-        <v>1.037686415213677</v>
+        <v>1.042021829507535</v>
       </c>
       <c r="K6">
-        <v>1.041705104724276</v>
+        <v>1.041994638517061</v>
       </c>
       <c r="L6">
-        <v>1.038691958812671</v>
+        <v>1.048569321301795</v>
       </c>
       <c r="M6">
-        <v>1.042034476946819</v>
+        <v>1.059116775832381</v>
       </c>
       <c r="N6">
-        <v>1.039160048947576</v>
+        <v>1.04350162002701</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018002663785723</v>
+        <v>1.037334911520282</v>
       </c>
       <c r="D7">
-        <v>1.031311268272382</v>
+        <v>1.039377102797652</v>
       </c>
       <c r="E7">
-        <v>1.028026145157446</v>
+        <v>1.045901954807148</v>
       </c>
       <c r="F7">
-        <v>1.03110204583804</v>
+        <v>1.056395972272433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051532338498473</v>
+        <v>1.039200472785223</v>
       </c>
       <c r="J7">
-        <v>1.036950880685721</v>
+        <v>1.041858099929755</v>
       </c>
       <c r="K7">
-        <v>1.041043048915206</v>
+        <v>1.041851868449322</v>
       </c>
       <c r="L7">
-        <v>1.037794796756143</v>
+        <v>1.048360449867854</v>
       </c>
       <c r="M7">
-        <v>1.040836166089812</v>
+        <v>1.058828752444055</v>
       </c>
       <c r="N7">
-        <v>1.038423469876223</v>
+        <v>1.04333765793445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012556180434121</v>
+        <v>1.036181839951708</v>
       </c>
       <c r="D8">
-        <v>1.02738786022533</v>
+        <v>1.038529538780837</v>
       </c>
       <c r="E8">
-        <v>1.023091519718465</v>
+        <v>1.044780334334161</v>
       </c>
       <c r="F8">
-        <v>1.024878989828237</v>
+        <v>1.05494656477083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049779420922825</v>
+        <v>1.038913261484623</v>
       </c>
       <c r="J8">
-        <v>1.033806320046471</v>
+        <v>1.0411730275293</v>
       </c>
       <c r="K8">
-        <v>1.038209197473289</v>
+        <v>1.041254006502272</v>
       </c>
       <c r="L8">
-        <v>1.03396752877512</v>
+        <v>1.047487539570126</v>
       </c>
       <c r="M8">
-        <v>1.035732183412563</v>
+        <v>1.057626167291697</v>
       </c>
       <c r="N8">
-        <v>1.035274443600179</v>
+        <v>1.042651612652607</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002520166838662</v>
+        <v>1.034152327184176</v>
       </c>
       <c r="D9">
-        <v>1.020175991533366</v>
+        <v>1.037037193835469</v>
       </c>
       <c r="E9">
-        <v>1.014043014999356</v>
+        <v>1.042809424674364</v>
       </c>
       <c r="F9">
-        <v>1.013474231960682</v>
+        <v>1.052402064578012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046465200195699</v>
+        <v>1.038397571985315</v>
       </c>
       <c r="J9">
-        <v>1.027984244320707</v>
+        <v>1.03996323135781</v>
       </c>
       <c r="K9">
-        <v>1.032949993943793</v>
+        <v>1.040196391861646</v>
       </c>
       <c r="L9">
-        <v>1.026912289938672</v>
+        <v>1.045949948074749</v>
       </c>
       <c r="M9">
-        <v>1.026352417377341</v>
+        <v>1.055512048950903</v>
       </c>
       <c r="N9">
-        <v>1.029444099859083</v>
+        <v>1.041440098431788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955040359096707</v>
+        <v>1.032800963763663</v>
       </c>
       <c r="D10">
-        <v>1.015149388028635</v>
+        <v>1.036043168919097</v>
       </c>
       <c r="E10">
-        <v>1.007748802275427</v>
+        <v>1.041499277488244</v>
       </c>
       <c r="F10">
-        <v>1.005542614359078</v>
+        <v>1.050712208884296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044093710994611</v>
+        <v>1.038047370699735</v>
       </c>
       <c r="J10">
-        <v>1.023897176132135</v>
+        <v>1.039155001635327</v>
       </c>
       <c r="K10">
-        <v>1.029250398766709</v>
+        <v>1.03948861326312</v>
       </c>
       <c r="L10">
-        <v>1.021979545078869</v>
+        <v>1.044925342173922</v>
       </c>
       <c r="M10">
-        <v>1.019812511147022</v>
+        <v>1.054106053071604</v>
       </c>
       <c r="N10">
-        <v>1.02535122756489</v>
+        <v>1.040630720930394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923814043683171</v>
+        <v>1.032216212519283</v>
       </c>
       <c r="D11">
-        <v>1.012916585766215</v>
+        <v>1.035612969544607</v>
       </c>
       <c r="E11">
-        <v>1.004955327900184</v>
+        <v>1.040932884457755</v>
       </c>
       <c r="F11">
-        <v>1.002022192460561</v>
+        <v>1.049982031997249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043025868743214</v>
+        <v>1.037894217400124</v>
       </c>
       <c r="J11">
-        <v>1.022074596702785</v>
+        <v>1.038804638002702</v>
       </c>
       <c r="K11">
-        <v>1.027598956989978</v>
+        <v>1.039181508479518</v>
       </c>
       <c r="L11">
-        <v>1.019784395154746</v>
+        <v>1.044481796806557</v>
       </c>
       <c r="M11">
-        <v>1.016906073688794</v>
+        <v>1.053498064175034</v>
       </c>
       <c r="N11">
-        <v>1.023526059863698</v>
+        <v>1.040279859741223</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9912081325635291</v>
+        <v>1.031999070741217</v>
       </c>
       <c r="D12">
-        <v>1.012078373915217</v>
+        <v>1.035453208794644</v>
       </c>
       <c r="E12">
-        <v>1.003906944832863</v>
+        <v>1.040722638717341</v>
       </c>
       <c r="F12">
-        <v>1.000700895636887</v>
+        <v>1.049711044413691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042622836166177</v>
+        <v>1.037837102595132</v>
       </c>
       <c r="J12">
-        <v>1.021389297753536</v>
+        <v>1.038674438944481</v>
       </c>
       <c r="K12">
-        <v>1.026977772956671</v>
+        <v>1.039067342085986</v>
       </c>
       <c r="L12">
-        <v>1.01895967478629</v>
+        <v>1.04431706266077</v>
       </c>
       <c r="M12">
-        <v>1.015814679900667</v>
+        <v>1.053272353678993</v>
       </c>
       <c r="N12">
-        <v>1.022839787711336</v>
+        <v>1.040149475785406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9914604205379295</v>
+        <v>1.032045645618006</v>
       </c>
       <c r="D13">
-        <v>1.012258580358647</v>
+        <v>1.03548747643628</v>
       </c>
       <c r="E13">
-        <v>1.004132322646319</v>
+        <v>1.040767730884593</v>
       </c>
       <c r="F13">
-        <v>1.000984948629286</v>
+        <v>1.049769161627631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042709581023411</v>
+        <v>1.037849364170723</v>
       </c>
       <c r="J13">
-        <v>1.021536679068705</v>
+        <v>1.038702369712724</v>
       </c>
       <c r="K13">
-        <v>1.027111375954089</v>
+        <v>1.039091835403617</v>
       </c>
       <c r="L13">
-        <v>1.019137010394831</v>
+        <v>1.044352397848284</v>
       </c>
       <c r="M13">
-        <v>1.016049332298359</v>
+        <v>1.053320763735568</v>
       </c>
       <c r="N13">
-        <v>1.022987378324878</v>
+        <v>1.040177446218543</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9922846985324115</v>
+        <v>1.032198262264237</v>
       </c>
       <c r="D14">
-        <v>1.012847481841292</v>
+        <v>1.035599762960251</v>
       </c>
       <c r="E14">
-        <v>1.004868891026915</v>
+        <v>1.04091550266005</v>
       </c>
       <c r="F14">
-        <v>1.001913256663431</v>
+        <v>1.049959627327874</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042992685668309</v>
+        <v>1.037889500896812</v>
       </c>
       <c r="J14">
-        <v>1.022018121471429</v>
+        <v>1.038793876894095</v>
       </c>
       <c r="K14">
-        <v>1.027547770109875</v>
+        <v>1.039172073361984</v>
       </c>
       <c r="L14">
-        <v>1.019716416797689</v>
+        <v>1.044468179450719</v>
       </c>
       <c r="M14">
-        <v>1.016816103363215</v>
+        <v>1.053479404346976</v>
       </c>
       <c r="N14">
-        <v>1.023469504431035</v>
+        <v>1.040269083350607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9927907684155697</v>
+        <v>1.032292302514914</v>
       </c>
       <c r="D15">
-        <v>1.013209138447621</v>
+        <v>1.035668951000809</v>
       </c>
       <c r="E15">
-        <v>1.005321272242796</v>
+        <v>1.04100656803126</v>
       </c>
       <c r="F15">
-        <v>1.002483385488927</v>
+        <v>1.050077010386478</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043166262026599</v>
+        <v>1.037914200416105</v>
       </c>
       <c r="J15">
-        <v>1.022313641102903</v>
+        <v>1.038850249776748</v>
       </c>
       <c r="K15">
-        <v>1.027815607790482</v>
+        <v>1.039221498188261</v>
       </c>
       <c r="L15">
-        <v>1.020072156260547</v>
+        <v>1.044539518777963</v>
       </c>
       <c r="M15">
-        <v>1.017286952180699</v>
+        <v>1.053577164477384</v>
       </c>
       <c r="N15">
-        <v>1.023765443734282</v>
+        <v>1.04032553628922</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9957094354828978</v>
+        <v>1.03283978025531</v>
       </c>
       <c r="D16">
-        <v>1.015296353188443</v>
+        <v>1.036071724589235</v>
       </c>
       <c r="E16">
-        <v>1.00793271716293</v>
+        <v>1.041536886392221</v>
       </c>
       <c r="F16">
-        <v>1.005774379821936</v>
+        <v>1.050760700887289</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044163697414977</v>
+        <v>1.038057503135105</v>
       </c>
       <c r="J16">
-        <v>1.024016990055904</v>
+        <v>1.039178245875094</v>
       </c>
       <c r="K16">
-        <v>1.02935892914977</v>
+        <v>1.039508981561743</v>
       </c>
       <c r="L16">
-        <v>1.022123944627153</v>
+        <v>1.044954781339993</v>
       </c>
       <c r="M16">
-        <v>1.020003779186371</v>
+        <v>1.054146420579465</v>
       </c>
       <c r="N16">
-        <v>1.025471211638174</v>
+        <v>1.040653998179647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9975171244001836</v>
+        <v>1.033183305897251</v>
       </c>
       <c r="D17">
-        <v>1.016590274656948</v>
+        <v>1.036324433705192</v>
       </c>
       <c r="E17">
-        <v>1.009552221288126</v>
+        <v>1.04186978541565</v>
       </c>
       <c r="F17">
-        <v>1.007815209020922</v>
+        <v>1.051189975350032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044778233398772</v>
+        <v>1.038146988262087</v>
       </c>
       <c r="J17">
-        <v>1.025071051360658</v>
+        <v>1.039383884099785</v>
       </c>
       <c r="K17">
-        <v>1.03031353754883</v>
+        <v>1.039689143754845</v>
       </c>
       <c r="L17">
-        <v>1.023394813052555</v>
+        <v>1.045215296242382</v>
       </c>
       <c r="M17">
-        <v>1.021687582984409</v>
+        <v>1.054503719200021</v>
       </c>
       <c r="N17">
-        <v>1.026526769830883</v>
+        <v>1.040859928434204</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9985634041275192</v>
+        <v>1.033383716924842</v>
       </c>
       <c r="D18">
-        <v>1.017339598133643</v>
+        <v>1.036471855787329</v>
       </c>
       <c r="E18">
-        <v>1.010490324213326</v>
+        <v>1.042064047439999</v>
       </c>
       <c r="F18">
-        <v>1.008997346834964</v>
+        <v>1.051440512574222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04513274519227</v>
+        <v>1.038199037320507</v>
       </c>
       <c r="J18">
-        <v>1.025680794400604</v>
+        <v>1.039503791240536</v>
       </c>
       <c r="K18">
-        <v>1.03086559252164</v>
+        <v>1.039794168273754</v>
       </c>
       <c r="L18">
-        <v>1.024130404921285</v>
+        <v>1.045367261280854</v>
       </c>
       <c r="M18">
-        <v>1.022662560838329</v>
+        <v>1.054712204165157</v>
       </c>
       <c r="N18">
-        <v>1.027137378775885</v>
+        <v>1.040980005856849</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9989188019128543</v>
+        <v>1.033452058375532</v>
       </c>
       <c r="D19">
-        <v>1.017594193997051</v>
+        <v>1.036522126448926</v>
       </c>
       <c r="E19">
-        <v>1.010809101900082</v>
+        <v>1.042130300600704</v>
       </c>
       <c r="F19">
-        <v>1.009399048669431</v>
+        <v>1.051525964484092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04525296364692</v>
+        <v>1.03821675990509</v>
       </c>
       <c r="J19">
-        <v>1.025887851412896</v>
+        <v>1.039544669977049</v>
       </c>
       <c r="K19">
-        <v>1.031053032632629</v>
+        <v>1.039829968538395</v>
       </c>
       <c r="L19">
-        <v>1.024380271605861</v>
+        <v>1.045419079285925</v>
       </c>
       <c r="M19">
-        <v>1.02299380690657</v>
+        <v>1.054783305474281</v>
       </c>
       <c r="N19">
-        <v>1.027344729832884</v>
+        <v>1.041020942645857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973240205700385</v>
+        <v>1.033146444874282</v>
       </c>
       <c r="D20">
-        <v>1.016452010375638</v>
+        <v>1.036297318212905</v>
       </c>
       <c r="E20">
-        <v>1.009379142673194</v>
+        <v>1.041834059425358</v>
       </c>
       <c r="F20">
-        <v>1.007597105183155</v>
+        <v>1.051143902875617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044712708323378</v>
+        <v>1.038137402462634</v>
       </c>
       <c r="J20">
-        <v>1.02495848789688</v>
+        <v>1.039361825004514</v>
       </c>
       <c r="K20">
-        <v>1.030211610929856</v>
+        <v>1.0396698203634</v>
       </c>
       <c r="L20">
-        <v>1.023259051954474</v>
+        <v>1.045187344303385</v>
       </c>
       <c r="M20">
-        <v>1.021507671226206</v>
+        <v>1.054465376289589</v>
       </c>
       <c r="N20">
-        <v>1.026414046514075</v>
+        <v>1.040837838012488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9920423444359359</v>
+        <v>1.032153318776869</v>
       </c>
       <c r="D21">
-        <v>1.012674312660309</v>
+        <v>1.035566696415295</v>
       </c>
       <c r="E21">
-        <v>1.004652291608689</v>
+        <v>1.040871983740075</v>
       </c>
       <c r="F21">
-        <v>1.00164027621998</v>
+        <v>1.049903533496875</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042909496707273</v>
+        <v>1.037877687888831</v>
       </c>
       <c r="J21">
-        <v>1.021876581237755</v>
+        <v>1.038766931914865</v>
       </c>
       <c r="K21">
-        <v>1.027419480015807</v>
+        <v>1.039148447870482</v>
       </c>
       <c r="L21">
-        <v>1.01954605770728</v>
+        <v>1.044434084140224</v>
       </c>
       <c r="M21">
-        <v>1.016590639558174</v>
+        <v>1.05343268521978</v>
       </c>
       <c r="N21">
-        <v>1.023327763193995</v>
+        <v>1.040242100106416</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9886437199138899</v>
+        <v>1.031529253690209</v>
       </c>
       <c r="D22">
-        <v>1.010247705902164</v>
+        <v>1.035107525516521</v>
       </c>
       <c r="E22">
-        <v>1.001617771168736</v>
+        <v>1.040267886738376</v>
       </c>
       <c r="F22">
-        <v>0.9978155726929574</v>
+        <v>1.049125010418842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041738657609771</v>
+        <v>1.037713082832863</v>
       </c>
       <c r="J22">
-        <v>1.0198905722617</v>
+        <v>1.038392561556793</v>
       </c>
       <c r="K22">
-        <v>1.025618851039465</v>
+        <v>1.038820096885754</v>
       </c>
       <c r="L22">
-        <v>1.017157247676479</v>
+        <v>1.043960586238528</v>
       </c>
       <c r="M22">
-        <v>1.013430428076258</v>
+        <v>1.052784107243864</v>
       </c>
       <c r="N22">
-        <v>1.021338933857395</v>
+        <v>1.039867198099496</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9904530103658745</v>
+        <v>1.031860048609637</v>
       </c>
       <c r="D23">
-        <v>1.011539109969424</v>
+        <v>1.03535092126978</v>
       </c>
       <c r="E23">
-        <v>1.003232547902483</v>
+        <v>1.040588053920672</v>
       </c>
       <c r="F23">
-        <v>0.9998509072234617</v>
+        <v>1.049537592279922</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042362939038424</v>
+        <v>1.037800467272504</v>
       </c>
       <c r="J23">
-        <v>1.02094810134349</v>
+        <v>1.038591054049185</v>
       </c>
       <c r="K23">
-        <v>1.026577789798944</v>
+        <v>1.038994213148505</v>
       </c>
       <c r="L23">
-        <v>1.018428904538187</v>
+        <v>1.04421158600315</v>
       </c>
       <c r="M23">
-        <v>1.015112438257273</v>
+        <v>1.053127862518842</v>
       </c>
       <c r="N23">
-        <v>1.022397964751781</v>
+        <v>1.040065972473994</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974113009062067</v>
+        <v>1.033163100665539</v>
       </c>
       <c r="D24">
-        <v>1.016514502708736</v>
+        <v>1.036309570471563</v>
       </c>
       <c r="E24">
-        <v>1.009457369578762</v>
+        <v>1.041850202191837</v>
       </c>
       <c r="F24">
-        <v>1.007695682340052</v>
+        <v>1.051164720584258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044742328432895</v>
+        <v>1.038141734324272</v>
       </c>
       <c r="J24">
-        <v>1.025009366131327</v>
+        <v>1.039371792678124</v>
       </c>
       <c r="K24">
-        <v>1.030257681842681</v>
+        <v>1.039678551960924</v>
       </c>
       <c r="L24">
-        <v>1.02332041408456</v>
+        <v>1.045199974547214</v>
       </c>
       <c r="M24">
-        <v>1.021588987677186</v>
+        <v>1.054482701557177</v>
       </c>
       <c r="N24">
-        <v>1.026464997001451</v>
+        <v>1.040847819841338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005169723225234</v>
+        <v>1.034676719861966</v>
       </c>
       <c r="D25">
-        <v>1.022077583254455</v>
+        <v>1.037422853291998</v>
       </c>
       <c r="E25">
-        <v>1.016426540571667</v>
+        <v>1.043318289107698</v>
       </c>
       <c r="F25">
-        <v>1.016477955469803</v>
+        <v>1.053058741743383</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047349751027445</v>
+        <v>1.038532022308103</v>
       </c>
       <c r="J25">
-        <v>1.029524349380132</v>
+        <v>1.04027629626157</v>
       </c>
       <c r="K25">
-        <v>1.034342574653507</v>
+        <v>1.040470291127944</v>
       </c>
       <c r="L25">
-        <v>1.028775097205615</v>
+        <v>1.046347376499715</v>
       </c>
       <c r="M25">
-        <v>1.028825746476128</v>
+        <v>1.056058001550839</v>
       </c>
       <c r="N25">
-        <v>1.030986392044345</v>
+        <v>1.04175360792362</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035885148950424</v>
+        <v>1.011125324014823</v>
       </c>
       <c r="D2">
-        <v>1.038311417493139</v>
+        <v>1.02635819702492</v>
       </c>
       <c r="E2">
-        <v>1.044491955831546</v>
+        <v>1.021798033976769</v>
       </c>
       <c r="F2">
-        <v>1.054574073263947</v>
+        <v>1.023248286699495</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038838669487082</v>
+        <v>1.049313216624602</v>
       </c>
       <c r="J2">
-        <v>1.040996482544607</v>
+        <v>1.032978295145881</v>
       </c>
       <c r="K2">
-        <v>1.041099811562334</v>
+        <v>1.037462138715305</v>
       </c>
       <c r="L2">
-        <v>1.04726285444757</v>
+        <v>1.032961815983674</v>
       </c>
       <c r="M2">
-        <v>1.057316909141941</v>
+        <v>1.034392965390954</v>
       </c>
       <c r="N2">
-        <v>1.042474816953786</v>
+        <v>1.034445242809261</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036763236396237</v>
+        <v>1.015324961182507</v>
       </c>
       <c r="D3">
-        <v>1.03895692447348</v>
+        <v>1.029381588658151</v>
       </c>
       <c r="E3">
-        <v>1.045345701130501</v>
+        <v>1.025597869515981</v>
       </c>
       <c r="F3">
-        <v>1.055677028276694</v>
+        <v>1.028039317380399</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03905861747575</v>
+        <v>1.050674969692092</v>
       </c>
       <c r="J3">
-        <v>1.041518664465915</v>
+        <v>1.035406395058527</v>
       </c>
       <c r="K3">
-        <v>1.041555740632425</v>
+        <v>1.039651837707473</v>
       </c>
       <c r="L3">
-        <v>1.047927737725493</v>
+        <v>1.035913371059384</v>
       </c>
       <c r="M3">
-        <v>1.058232394153206</v>
+        <v>1.038325572438777</v>
       </c>
       <c r="N3">
-        <v>1.042997740433317</v>
+        <v>1.036876790902284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037331717464131</v>
+        <v>1.017987825127098</v>
       </c>
       <c r="D4">
-        <v>1.039374755357087</v>
+        <v>1.031300570823749</v>
       </c>
       <c r="E4">
-        <v>1.045898845965253</v>
+        <v>1.028012676593888</v>
       </c>
       <c r="F4">
-        <v>1.056391953457573</v>
+        <v>1.031085055635391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039199683201823</v>
+        <v>1.051527612018316</v>
       </c>
       <c r="J4">
-        <v>1.041856204620144</v>
+        <v>1.036942330281711</v>
       </c>
       <c r="K4">
-        <v>1.041850215496057</v>
+        <v>1.041035350794026</v>
       </c>
       <c r="L4">
-        <v>1.048358032575444</v>
+        <v>1.037784371998693</v>
       </c>
       <c r="M4">
-        <v>1.058825419729738</v>
+        <v>1.040822246465964</v>
       </c>
       <c r="N4">
-        <v>1.043335759933282</v>
+        <v>1.038414907329658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037570777521864</v>
+        <v>1.019094659680076</v>
       </c>
       <c r="D5">
-        <v>1.039550444676601</v>
+        <v>1.032098626484589</v>
       </c>
       <c r="E5">
-        <v>1.046131557837729</v>
+        <v>1.029017690969616</v>
       </c>
       <c r="F5">
-        <v>1.056692803672369</v>
+        <v>1.032352939110433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039258686073731</v>
+        <v>1.051879387633561</v>
       </c>
       <c r="J5">
-        <v>1.041998022594004</v>
+        <v>1.03757984693946</v>
       </c>
       <c r="K5">
-        <v>1.041973882050207</v>
+        <v>1.041609202579561</v>
       </c>
       <c r="L5">
-        <v>1.048538944489139</v>
+        <v>1.038561924903943</v>
       </c>
       <c r="M5">
-        <v>1.059074881185133</v>
+        <v>1.041860747968691</v>
       </c>
       <c r="N5">
-        <v>1.043477779304931</v>
+        <v>1.039053329334186</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037610920865109</v>
+        <v>1.019279773463447</v>
       </c>
       <c r="D6">
-        <v>1.039579945592711</v>
+        <v>1.032232121569784</v>
       </c>
       <c r="E6">
-        <v>1.046170641104191</v>
+        <v>1.029185850747076</v>
       </c>
       <c r="F6">
-        <v>1.056743335054156</v>
+        <v>1.032565100040525</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039268575237103</v>
+        <v>1.05193806504959</v>
       </c>
       <c r="J6">
-        <v>1.042021829507535</v>
+        <v>1.037686415213676</v>
       </c>
       <c r="K6">
-        <v>1.041994638517061</v>
+        <v>1.041705104724275</v>
       </c>
       <c r="L6">
-        <v>1.048569321301795</v>
+        <v>1.038691958812669</v>
       </c>
       <c r="M6">
-        <v>1.059116775832381</v>
+        <v>1.042034476946817</v>
       </c>
       <c r="N6">
-        <v>1.04350162002701</v>
+        <v>1.039160048947575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037334911520282</v>
+        <v>1.018002663785723</v>
       </c>
       <c r="D7">
-        <v>1.039377102797652</v>
+        <v>1.031311268272381</v>
       </c>
       <c r="E7">
-        <v>1.045901954807148</v>
+        <v>1.028026145157446</v>
       </c>
       <c r="F7">
-        <v>1.056395972272433</v>
+        <v>1.031102045838039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039200472785223</v>
+        <v>1.051532338498472</v>
       </c>
       <c r="J7">
-        <v>1.041858099929755</v>
+        <v>1.03695088068572</v>
       </c>
       <c r="K7">
-        <v>1.041851868449322</v>
+        <v>1.041043048915206</v>
       </c>
       <c r="L7">
-        <v>1.048360449867854</v>
+        <v>1.037794796756143</v>
       </c>
       <c r="M7">
-        <v>1.058828752444055</v>
+        <v>1.040836166089811</v>
       </c>
       <c r="N7">
-        <v>1.04333765793445</v>
+        <v>1.038423469876222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036181839951708</v>
+        <v>1.01255618043412</v>
       </c>
       <c r="D8">
-        <v>1.038529538780837</v>
+        <v>1.027387860225329</v>
       </c>
       <c r="E8">
-        <v>1.044780334334161</v>
+        <v>1.023091519718464</v>
       </c>
       <c r="F8">
-        <v>1.05494656477083</v>
+        <v>1.024878989828235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038913261484623</v>
+        <v>1.049779420922825</v>
       </c>
       <c r="J8">
-        <v>1.0411730275293</v>
+        <v>1.033806320046471</v>
       </c>
       <c r="K8">
-        <v>1.041254006502272</v>
+        <v>1.038209197473288</v>
       </c>
       <c r="L8">
-        <v>1.047487539570126</v>
+        <v>1.033967528775119</v>
       </c>
       <c r="M8">
-        <v>1.057626167291697</v>
+        <v>1.035732183412562</v>
       </c>
       <c r="N8">
-        <v>1.042651612652607</v>
+        <v>1.035274443600179</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034152327184176</v>
+        <v>1.002520166838662</v>
       </c>
       <c r="D9">
-        <v>1.037037193835469</v>
+        <v>1.020175991533366</v>
       </c>
       <c r="E9">
-        <v>1.042809424674364</v>
+        <v>1.014043014999355</v>
       </c>
       <c r="F9">
-        <v>1.052402064578012</v>
+        <v>1.013474231960682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038397571985315</v>
+        <v>1.046465200195699</v>
       </c>
       <c r="J9">
-        <v>1.03996323135781</v>
+        <v>1.027984244320707</v>
       </c>
       <c r="K9">
-        <v>1.040196391861646</v>
+        <v>1.032949993943792</v>
       </c>
       <c r="L9">
-        <v>1.045949948074749</v>
+        <v>1.026912289938672</v>
       </c>
       <c r="M9">
-        <v>1.055512048950903</v>
+        <v>1.02635241737734</v>
       </c>
       <c r="N9">
-        <v>1.041440098431788</v>
+        <v>1.029444099859083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032800963763663</v>
+        <v>0.995504035909671</v>
       </c>
       <c r="D10">
-        <v>1.036043168919097</v>
+        <v>1.015149388028636</v>
       </c>
       <c r="E10">
-        <v>1.041499277488244</v>
+        <v>1.007748802275428</v>
       </c>
       <c r="F10">
-        <v>1.050712208884296</v>
+        <v>1.005542614359078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038047370699735</v>
+        <v>1.044093710994612</v>
       </c>
       <c r="J10">
-        <v>1.039155001635327</v>
+        <v>1.023897176132135</v>
       </c>
       <c r="K10">
-        <v>1.03948861326312</v>
+        <v>1.02925039876671</v>
       </c>
       <c r="L10">
-        <v>1.044925342173922</v>
+        <v>1.021979545078869</v>
       </c>
       <c r="M10">
-        <v>1.054106053071604</v>
+        <v>1.019812511147022</v>
       </c>
       <c r="N10">
-        <v>1.040630720930394</v>
+        <v>1.025351227564891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032216212519283</v>
+        <v>0.9923814043683168</v>
       </c>
       <c r="D11">
-        <v>1.035612969544607</v>
+        <v>1.012916585766215</v>
       </c>
       <c r="E11">
-        <v>1.040932884457755</v>
+        <v>1.004955327900184</v>
       </c>
       <c r="F11">
-        <v>1.049982031997249</v>
+        <v>1.002022192460562</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037894217400124</v>
+        <v>1.043025868743214</v>
       </c>
       <c r="J11">
-        <v>1.038804638002702</v>
+        <v>1.022074596702785</v>
       </c>
       <c r="K11">
-        <v>1.039181508479518</v>
+        <v>1.027598956989978</v>
       </c>
       <c r="L11">
-        <v>1.044481796806557</v>
+        <v>1.019784395154746</v>
       </c>
       <c r="M11">
-        <v>1.053498064175034</v>
+        <v>1.016906073688795</v>
       </c>
       <c r="N11">
-        <v>1.040279859741223</v>
+        <v>1.023526059863698</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031999070741217</v>
+        <v>0.9912081325635274</v>
       </c>
       <c r="D12">
-        <v>1.035453208794644</v>
+        <v>1.012078373915215</v>
       </c>
       <c r="E12">
-        <v>1.040722638717341</v>
+        <v>1.003906944832861</v>
       </c>
       <c r="F12">
-        <v>1.049711044413691</v>
+        <v>1.000700895636886</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037837102595132</v>
+        <v>1.042622836166176</v>
       </c>
       <c r="J12">
-        <v>1.038674438944481</v>
+        <v>1.021389297753534</v>
       </c>
       <c r="K12">
-        <v>1.039067342085986</v>
+        <v>1.026977772956669</v>
       </c>
       <c r="L12">
-        <v>1.04431706266077</v>
+        <v>1.018959674786288</v>
       </c>
       <c r="M12">
-        <v>1.053272353678993</v>
+        <v>1.015814679900665</v>
       </c>
       <c r="N12">
-        <v>1.040149475785406</v>
+        <v>1.022839787711334</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032045645618006</v>
+        <v>0.991460420537929</v>
       </c>
       <c r="D13">
-        <v>1.03548747643628</v>
+        <v>1.012258580358646</v>
       </c>
       <c r="E13">
-        <v>1.040767730884593</v>
+        <v>1.004132322646319</v>
       </c>
       <c r="F13">
-        <v>1.049769161627631</v>
+        <v>1.000984948629285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037849364170723</v>
+        <v>1.042709581023411</v>
       </c>
       <c r="J13">
-        <v>1.038702369712724</v>
+        <v>1.021536679068705</v>
       </c>
       <c r="K13">
-        <v>1.039091835403617</v>
+        <v>1.027111375954089</v>
       </c>
       <c r="L13">
-        <v>1.044352397848284</v>
+        <v>1.01913701039483</v>
       </c>
       <c r="M13">
-        <v>1.053320763735568</v>
+        <v>1.016049332298358</v>
       </c>
       <c r="N13">
-        <v>1.040177446218543</v>
+        <v>1.022987378324877</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032198262264237</v>
+        <v>0.9922846985324114</v>
       </c>
       <c r="D14">
-        <v>1.035599762960251</v>
+        <v>1.012847481841292</v>
       </c>
       <c r="E14">
-        <v>1.04091550266005</v>
+        <v>1.004868891026915</v>
       </c>
       <c r="F14">
-        <v>1.049959627327874</v>
+        <v>1.001913256663431</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037889500896812</v>
+        <v>1.042992685668309</v>
       </c>
       <c r="J14">
-        <v>1.038793876894095</v>
+        <v>1.022018121471429</v>
       </c>
       <c r="K14">
-        <v>1.039172073361984</v>
+        <v>1.027547770109875</v>
       </c>
       <c r="L14">
-        <v>1.044468179450719</v>
+        <v>1.019716416797689</v>
       </c>
       <c r="M14">
-        <v>1.053479404346976</v>
+        <v>1.016816103363214</v>
       </c>
       <c r="N14">
-        <v>1.040269083350607</v>
+        <v>1.023469504431035</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032292302514914</v>
+        <v>0.9927907684155698</v>
       </c>
       <c r="D15">
-        <v>1.035668951000809</v>
+        <v>1.013209138447621</v>
       </c>
       <c r="E15">
-        <v>1.04100656803126</v>
+        <v>1.005321272242797</v>
       </c>
       <c r="F15">
-        <v>1.050077010386478</v>
+        <v>1.002483385488927</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037914200416105</v>
+        <v>1.043166262026599</v>
       </c>
       <c r="J15">
-        <v>1.038850249776748</v>
+        <v>1.022313641102903</v>
       </c>
       <c r="K15">
-        <v>1.039221498188261</v>
+        <v>1.027815607790482</v>
       </c>
       <c r="L15">
-        <v>1.044539518777963</v>
+        <v>1.020072156260547</v>
       </c>
       <c r="M15">
-        <v>1.053577164477384</v>
+        <v>1.0172869521807</v>
       </c>
       <c r="N15">
-        <v>1.04032553628922</v>
+        <v>1.023765443734283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03283978025531</v>
+        <v>0.9957094354828974</v>
       </c>
       <c r="D16">
-        <v>1.036071724589235</v>
+        <v>1.015296353188443</v>
       </c>
       <c r="E16">
-        <v>1.041536886392221</v>
+        <v>1.00793271716293</v>
       </c>
       <c r="F16">
-        <v>1.050760700887289</v>
+        <v>1.005774379821936</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038057503135105</v>
+        <v>1.044163697414976</v>
       </c>
       <c r="J16">
-        <v>1.039178245875094</v>
+        <v>1.024016990055904</v>
       </c>
       <c r="K16">
-        <v>1.039508981561743</v>
+        <v>1.02935892914977</v>
       </c>
       <c r="L16">
-        <v>1.044954781339993</v>
+        <v>1.022123944627153</v>
       </c>
       <c r="M16">
-        <v>1.054146420579465</v>
+        <v>1.020003779186371</v>
       </c>
       <c r="N16">
-        <v>1.040653998179647</v>
+        <v>1.025471211638174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033183305897251</v>
+        <v>0.9975171244001833</v>
       </c>
       <c r="D17">
-        <v>1.036324433705192</v>
+        <v>1.016590274656948</v>
       </c>
       <c r="E17">
-        <v>1.04186978541565</v>
+        <v>1.009552221288126</v>
       </c>
       <c r="F17">
-        <v>1.051189975350032</v>
+        <v>1.007815209020922</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038146988262087</v>
+        <v>1.044778233398772</v>
       </c>
       <c r="J17">
-        <v>1.039383884099785</v>
+        <v>1.025071051360657</v>
       </c>
       <c r="K17">
-        <v>1.039689143754845</v>
+        <v>1.03031353754883</v>
       </c>
       <c r="L17">
-        <v>1.045215296242382</v>
+        <v>1.023394813052555</v>
       </c>
       <c r="M17">
-        <v>1.054503719200021</v>
+        <v>1.021687582984409</v>
       </c>
       <c r="N17">
-        <v>1.040859928434204</v>
+        <v>1.026526769830882</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033383716924842</v>
+        <v>0.9985634041275192</v>
       </c>
       <c r="D18">
-        <v>1.036471855787329</v>
+        <v>1.017339598133643</v>
       </c>
       <c r="E18">
-        <v>1.042064047439999</v>
+        <v>1.010490324213326</v>
       </c>
       <c r="F18">
-        <v>1.051440512574222</v>
+        <v>1.008997346834964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038199037320507</v>
+        <v>1.04513274519227</v>
       </c>
       <c r="J18">
-        <v>1.039503791240536</v>
+        <v>1.025680794400604</v>
       </c>
       <c r="K18">
-        <v>1.039794168273754</v>
+        <v>1.030865592521641</v>
       </c>
       <c r="L18">
-        <v>1.045367261280854</v>
+        <v>1.024130404921285</v>
       </c>
       <c r="M18">
-        <v>1.054712204165157</v>
+        <v>1.022662560838329</v>
       </c>
       <c r="N18">
-        <v>1.040980005856849</v>
+        <v>1.027137378775885</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033452058375532</v>
+        <v>0.9989188019128536</v>
       </c>
       <c r="D19">
-        <v>1.036522126448926</v>
+        <v>1.017594193997051</v>
       </c>
       <c r="E19">
-        <v>1.042130300600704</v>
+        <v>1.010809101900081</v>
       </c>
       <c r="F19">
-        <v>1.051525964484092</v>
+        <v>1.00939904866943</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03821675990509</v>
+        <v>1.04525296364692</v>
       </c>
       <c r="J19">
-        <v>1.039544669977049</v>
+        <v>1.025887851412896</v>
       </c>
       <c r="K19">
-        <v>1.039829968538395</v>
+        <v>1.031053032632629</v>
       </c>
       <c r="L19">
-        <v>1.045419079285925</v>
+        <v>1.024380271605861</v>
       </c>
       <c r="M19">
-        <v>1.054783305474281</v>
+        <v>1.022993806906569</v>
       </c>
       <c r="N19">
-        <v>1.041020942645857</v>
+        <v>1.027344729832883</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033146444874282</v>
+        <v>0.9973240205700381</v>
       </c>
       <c r="D20">
-        <v>1.036297318212905</v>
+        <v>1.016452010375638</v>
       </c>
       <c r="E20">
-        <v>1.041834059425358</v>
+        <v>1.009379142673194</v>
       </c>
       <c r="F20">
-        <v>1.051143902875617</v>
+        <v>1.007597105183154</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038137402462634</v>
+        <v>1.044712708323378</v>
       </c>
       <c r="J20">
-        <v>1.039361825004514</v>
+        <v>1.02495848789688</v>
       </c>
       <c r="K20">
-        <v>1.0396698203634</v>
+        <v>1.030211610929856</v>
       </c>
       <c r="L20">
-        <v>1.045187344303385</v>
+        <v>1.023259051954473</v>
       </c>
       <c r="M20">
-        <v>1.054465376289589</v>
+        <v>1.021507671226205</v>
       </c>
       <c r="N20">
-        <v>1.040837838012488</v>
+        <v>1.026414046514075</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032153318776869</v>
+        <v>0.9920423444359339</v>
       </c>
       <c r="D21">
-        <v>1.035566696415295</v>
+        <v>1.012674312660307</v>
       </c>
       <c r="E21">
-        <v>1.040871983740075</v>
+        <v>1.004652291608688</v>
       </c>
       <c r="F21">
-        <v>1.049903533496875</v>
+        <v>1.001640276219978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037877687888831</v>
+        <v>1.042909496707272</v>
       </c>
       <c r="J21">
-        <v>1.038766931914865</v>
+        <v>1.021876581237753</v>
       </c>
       <c r="K21">
-        <v>1.039148447870482</v>
+        <v>1.027419480015805</v>
       </c>
       <c r="L21">
-        <v>1.044434084140224</v>
+        <v>1.019546057707279</v>
       </c>
       <c r="M21">
-        <v>1.05343268521978</v>
+        <v>1.016590639558172</v>
       </c>
       <c r="N21">
-        <v>1.040242100106416</v>
+        <v>1.023327763193993</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031529253690209</v>
+        <v>0.9886437199138899</v>
       </c>
       <c r="D22">
-        <v>1.035107525516521</v>
+        <v>1.010247705902164</v>
       </c>
       <c r="E22">
-        <v>1.040267886738376</v>
+        <v>1.001617771168736</v>
       </c>
       <c r="F22">
-        <v>1.049125010418842</v>
+        <v>0.9978155726929573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037713082832863</v>
+        <v>1.041738657609771</v>
       </c>
       <c r="J22">
-        <v>1.038392561556793</v>
+        <v>1.0198905722617</v>
       </c>
       <c r="K22">
-        <v>1.038820096885754</v>
+        <v>1.025618851039465</v>
       </c>
       <c r="L22">
-        <v>1.043960586238528</v>
+        <v>1.017157247676479</v>
       </c>
       <c r="M22">
-        <v>1.052784107243864</v>
+        <v>1.013430428076258</v>
       </c>
       <c r="N22">
-        <v>1.039867198099496</v>
+        <v>1.021338933857395</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031860048609637</v>
+        <v>0.9904530103658746</v>
       </c>
       <c r="D23">
-        <v>1.03535092126978</v>
+        <v>1.011539109969424</v>
       </c>
       <c r="E23">
-        <v>1.040588053920672</v>
+        <v>1.003232547902483</v>
       </c>
       <c r="F23">
-        <v>1.049537592279922</v>
+        <v>0.999850907223462</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037800467272504</v>
+        <v>1.042362939038424</v>
       </c>
       <c r="J23">
-        <v>1.038591054049185</v>
+        <v>1.02094810134349</v>
       </c>
       <c r="K23">
-        <v>1.038994213148505</v>
+        <v>1.026577789798944</v>
       </c>
       <c r="L23">
-        <v>1.04421158600315</v>
+        <v>1.018428904538187</v>
       </c>
       <c r="M23">
-        <v>1.053127862518842</v>
+        <v>1.015112438257273</v>
       </c>
       <c r="N23">
-        <v>1.040065972473994</v>
+        <v>1.022397964751781</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033163100665539</v>
+        <v>0.9974113009062064</v>
       </c>
       <c r="D24">
-        <v>1.036309570471563</v>
+        <v>1.016514502708736</v>
       </c>
       <c r="E24">
-        <v>1.041850202191837</v>
+        <v>1.009457369578762</v>
       </c>
       <c r="F24">
-        <v>1.051164720584258</v>
+        <v>1.007695682340052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038141734324272</v>
+        <v>1.044742328432895</v>
       </c>
       <c r="J24">
-        <v>1.039371792678124</v>
+        <v>1.025009366131327</v>
       </c>
       <c r="K24">
-        <v>1.039678551960924</v>
+        <v>1.03025768184268</v>
       </c>
       <c r="L24">
-        <v>1.045199974547214</v>
+        <v>1.02332041408456</v>
       </c>
       <c r="M24">
-        <v>1.054482701557177</v>
+        <v>1.021588987677185</v>
       </c>
       <c r="N24">
-        <v>1.040847819841338</v>
+        <v>1.026464997001451</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034676719861966</v>
+        <v>1.005169723225234</v>
       </c>
       <c r="D25">
-        <v>1.037422853291998</v>
+        <v>1.022077583254455</v>
       </c>
       <c r="E25">
-        <v>1.043318289107698</v>
+        <v>1.016426540571667</v>
       </c>
       <c r="F25">
-        <v>1.053058741743383</v>
+        <v>1.016477955469802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038532022308103</v>
+        <v>1.047349751027445</v>
       </c>
       <c r="J25">
-        <v>1.04027629626157</v>
+        <v>1.029524349380132</v>
       </c>
       <c r="K25">
-        <v>1.040470291127944</v>
+        <v>1.034342574653507</v>
       </c>
       <c r="L25">
-        <v>1.046347376499715</v>
+        <v>1.028775097205615</v>
       </c>
       <c r="M25">
-        <v>1.056058001550839</v>
+        <v>1.028825746476127</v>
       </c>
       <c r="N25">
-        <v>1.04175360792362</v>
+        <v>1.030986392044345</v>
       </c>
     </row>
   </sheetData>
